--- a/data/IKPA_JULI_2025.xlsx
+++ b/data/IKPA_JULI_2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X17"/>
+  <dimension ref="A1:X19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,70 +556,100 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>109</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>692339</t>
+          <t>000005</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>RUTAN KELAS II B BATURAJA</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>100</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>100</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>100</v>
-      </c>
-      <c r="K2" t="n">
-        <v>100</v>
-      </c>
-      <c r="L2" t="n">
-        <v>100</v>
-      </c>
-      <c r="M2" t="n">
-        <v>100</v>
-      </c>
-      <c r="N2" t="n">
-        <v>100</v>
-      </c>
-      <c r="O2" t="n">
-        <v>100</v>
-      </c>
-      <c r="P2" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>100</v>
-      </c>
-      <c r="R2" t="n">
-        <v>100</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
+          <t>401945</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -631,85 +661,115 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>RUTAN BATURAJA</t>
+          <t>401945</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>RUTAN BATURAJA</t>
+          <t>401945</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>RUTAN BATURAJA (692339)</t>
+          <t>401945 (000005)</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>5</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>109</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>428258</t>
+          <t>000005</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>BADAN PUSAT STATISTIK KAB. OGAN KOMERING ULU</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="G3" t="n">
-        <v>100</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>100</v>
-      </c>
-      <c r="J3" t="n">
-        <v>100</v>
-      </c>
-      <c r="K3" t="n">
-        <v>100</v>
-      </c>
-      <c r="L3" t="n">
-        <v>100</v>
-      </c>
-      <c r="M3" t="n">
-        <v>100</v>
-      </c>
-      <c r="N3" t="n">
-        <v>100</v>
-      </c>
-      <c r="O3" t="n">
-        <v>100</v>
-      </c>
-      <c r="P3" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>100</v>
-      </c>
-      <c r="R3" t="n">
-        <v>100</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
+          <t>403410</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>83,55</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>90,67</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>95,34</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>92,12</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>98,03</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -721,85 +781,115 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>BPS OKU</t>
+          <t>403410</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>BPS OKU</t>
+          <t>403410</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>BPS OKU (428258)</t>
+          <t>403410 (000005)</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>12</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>109</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>668529</t>
+          <t>000137</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>BADAN PUSAT STATISTIK KAB. OGAN KOMERING ULU TIMUR</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>100</v>
-      </c>
-      <c r="G4" t="n">
-        <v>100</v>
-      </c>
-      <c r="H4" t="n">
-        <v>100</v>
-      </c>
-      <c r="I4" t="n">
-        <v>99.81999999999999</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-      <c r="K4" t="n">
-        <v>100</v>
-      </c>
-      <c r="L4" t="n">
-        <v>100</v>
-      </c>
-      <c r="M4" t="n">
-        <v>99.28</v>
-      </c>
-      <c r="N4" t="n">
-        <v>100</v>
-      </c>
-      <c r="O4" t="n">
-        <v>100</v>
-      </c>
-      <c r="P4" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>100</v>
-      </c>
-      <c r="R4" t="n">
-        <v>99.86</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
+          <t>692725</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>88,48</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>76,17</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>88,09</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>93,30</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>87,50</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>95,20</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -811,85 +901,115 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>BPS OKUT</t>
+          <t>692725</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>BPS OKUT</t>
+          <t>692725</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>BPS OKUT (668529)</t>
+          <t>692725 (000137)</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>16</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>109</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>692625</t>
+          <t>000005</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>BAPAS KELAS II OKU INDUK</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>100</v>
-      </c>
-      <c r="G5" t="n">
-        <v>100</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>99.59</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-      <c r="K5" t="n">
-        <v>100</v>
-      </c>
-      <c r="L5" t="n">
-        <v>93.08</v>
-      </c>
-      <c r="M5" t="n">
-        <v>99.18000000000001</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>100</v>
-      </c>
-      <c r="R5" t="n">
-        <v>78.8</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
+          <t>401944</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -901,85 +1021,115 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>BAPAS OKU INDUK</t>
+          <t>401944</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>BAPAS OKU INDUK</t>
+          <t>401944</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>BAPAS OKU INDUK (692625)</t>
+          <t>401944 (000005)</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>20</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>109</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>553099</t>
+          <t>000060</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MADRASAH TSANAWIYAH NEGERI 3 OGAN KOMERING ULU TIMUR</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>100</v>
-      </c>
-      <c r="G6" t="n">
-        <v>100</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>99.43000000000001</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-      <c r="K6" t="n">
-        <v>100</v>
-      </c>
-      <c r="L6" t="n">
-        <v>87.22</v>
-      </c>
-      <c r="M6" t="n">
-        <v>100</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>98.86</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>100</v>
-      </c>
-      <c r="R6" t="n">
-        <v>77.97</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
+          <t>665307</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>93,65</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>98,41</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -991,85 +1141,115 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>MTSN 3 OKUT</t>
+          <t>665307</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>MTSN 3 OKUT</t>
+          <t>665307</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>MTSN 3 OKUT (553099)</t>
+          <t>665307 (000060)</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>24</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>109</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>669055</t>
+          <t>000054</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>KANTOR PERTANAHAN KAB. OGAN KOMERING ULU TIMUR PROV. SUMATRA SELATAN</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>100</v>
-      </c>
-      <c r="G7" t="n">
-        <v>100</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>98.56</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-      <c r="K7" t="n">
-        <v>100</v>
-      </c>
-      <c r="L7" t="n">
-        <v>84.93000000000001</v>
-      </c>
-      <c r="M7" t="n">
-        <v>98.95</v>
-      </c>
-      <c r="N7" t="n">
-        <v>100</v>
-      </c>
-      <c r="O7" t="n">
-        <v>100</v>
-      </c>
-      <c r="P7" t="n">
-        <v>95.28</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>100</v>
-      </c>
-      <c r="R7" t="n">
-        <v>97.06</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
+          <t>428258</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>86,09</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>91,81</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>97,95</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1081,85 +1261,115 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>BPN OKUT</t>
+          <t>428258</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>BPN OKUT</t>
+          <t>428258</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>BPN OKUT (669055)</t>
+          <t>428258 (000054)</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>28</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>109</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>007190</t>
+          <t>000056</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>KEJAKSAAN NEGERI OGAN KOMERING ULU TIMUR</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G8" t="n">
-        <v>100</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>99.95999999999999</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-      <c r="K8" t="n">
-        <v>100</v>
-      </c>
-      <c r="L8" t="n">
-        <v>77.90000000000001</v>
-      </c>
-      <c r="M8" t="n">
-        <v>100</v>
-      </c>
-      <c r="N8" t="n">
-        <v>100</v>
-      </c>
-      <c r="O8" t="n">
-        <v>100</v>
-      </c>
-      <c r="P8" t="n">
-        <v>99.83</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>100</v>
-      </c>
-      <c r="R8" t="n">
-        <v>96.67</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
+          <t>669055</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>80,07</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>85,98</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>92,99</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>93,53</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>94,03</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>96,89</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1171,85 +1381,115 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>KEJARI OKUT</t>
+          <t>669055</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>KEJARI OKUT</t>
+          <t>669055</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>KEJARI OKUT (007190)</t>
+          <t>669055 (000056)</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>32</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>109</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>692334</t>
+          <t>000025</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>LAPAS KELAS II B MUARA DUA</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>99.76000000000001</v>
-      </c>
-      <c r="G9" t="n">
-        <v>100</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>99.86</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-      <c r="K9" t="n">
-        <v>100</v>
-      </c>
-      <c r="L9" t="n">
-        <v>76.81</v>
-      </c>
-      <c r="M9" t="n">
-        <v>99.45</v>
-      </c>
-      <c r="N9" t="n">
-        <v>100</v>
-      </c>
-      <c r="O9" t="n">
-        <v>100</v>
-      </c>
-      <c r="P9" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>100</v>
-      </c>
-      <c r="R9" t="n">
-        <v>96.41</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
+          <t>424245</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>69,39</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>73,64</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>86,82</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>94,88</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>99,46</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>98,59</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1261,85 +1501,115 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>LAPAS MUARA DUA</t>
+          <t>424245</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>LAPAS MUARA DUA</t>
+          <t>424245</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>LAPAS MUARA DUA (692334)</t>
+          <t>424245 (000025)</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>36</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>109</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>670561</t>
+          <t>000012</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>KANTOR PERTANAHAN KAB. OGAN KOMERING ULU SELATAN</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>95</v>
-      </c>
-      <c r="G10" t="n">
-        <v>100</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>100</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-      <c r="K10" t="n">
-        <v>100</v>
-      </c>
-      <c r="L10" t="n">
-        <v>73.89</v>
-      </c>
-      <c r="M10" t="n">
-        <v>100</v>
-      </c>
-      <c r="N10" t="n">
-        <v>100</v>
-      </c>
-      <c r="O10" t="n">
-        <v>100</v>
-      </c>
-      <c r="P10" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>100</v>
-      </c>
-      <c r="R10" t="n">
-        <v>96.08</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
+          <t>685001</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>77,61</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>84,29</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>92,15</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>97,89</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>99,30</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1351,85 +1621,115 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>BPN OKUS</t>
+          <t>685001</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>BPN OKUS</t>
+          <t>685001</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>BPN OKUS (670561)</t>
+          <t>685001 (000012)</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>40</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>109</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>440503</t>
+          <t>000024</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU SELATAN</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>97.22</v>
-      </c>
-      <c r="G11" t="n">
-        <v>100</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>96.44</v>
-      </c>
-      <c r="J11" t="n">
-        <v>95.56</v>
-      </c>
-      <c r="K11" t="n">
-        <v>100</v>
-      </c>
-      <c r="L11" t="n">
-        <v>93.88</v>
-      </c>
-      <c r="M11" t="n">
-        <v>92.88</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>95.56</v>
-      </c>
-      <c r="R11" t="n">
-        <v>76.55</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
+          <t>690801</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>76,92</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>88,46</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>85,78</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>92,86</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>94,66</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1441,85 +1741,115 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>KEMENAG OKUS</t>
+          <t>690801</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>KEMENAG OKUS</t>
+          <t>690801</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>KEMENAG OKUS (440503)</t>
+          <t>690801 (000024)</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>44</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>109</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>426050</t>
+          <t>000025</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MADRASAH TSANAWIYAH NEGERI 1 OGAN KOMERING ULU</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>100</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>97.86</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-      <c r="K12" t="n">
-        <v>100</v>
-      </c>
-      <c r="L12" t="n">
-        <v>76.01000000000001</v>
-      </c>
-      <c r="M12" t="n">
-        <v>100</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>95.70999999999999</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>100</v>
-      </c>
-      <c r="R12" t="n">
-        <v>75.97</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
+          <t>418456</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>91,83</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>89,74</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>94,87</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>98,82</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>99,41</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1531,85 +1861,115 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>MTSN 1 OKU</t>
+          <t>418456</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>MTSN 1 OKU</t>
+          <t>418456</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>MTSN 1 OKU (426050)</t>
+          <t>418456 (000025)</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>48</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>109</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>426066</t>
+          <t>000137</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>MADRASAH ALIYAH NEGERI 1 OGAN KOMERING ULU TIMUR</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>98.23999999999999</v>
-      </c>
-      <c r="G13" t="n">
-        <v>100</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>97.56</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-      <c r="K13" t="n">
-        <v>100</v>
-      </c>
-      <c r="L13" t="n">
-        <v>75.09</v>
-      </c>
-      <c r="M13" t="n">
-        <v>94.88</v>
-      </c>
-      <c r="N13" t="n">
-        <v>95.55</v>
-      </c>
-      <c r="O13" t="n">
-        <v>100</v>
-      </c>
-      <c r="P13" t="n">
-        <v>99.79000000000001</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>100</v>
-      </c>
-      <c r="R13" t="n">
-        <v>94.77</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
+          <t>692625</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>93,05</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>92,12</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>96,06</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>92,46</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>96,23</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1621,85 +1981,115 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>MAN 1 OKUT</t>
+          <t>692625</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>MAN 1 OKUT</t>
+          <t>692625</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>MAN 1 OKUT (426066)</t>
+          <t>692625 (000137)</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>51</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>109</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>007208</t>
+          <t>000025</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>KEJAKSAAN NEGERI OGAN KOMERING ULU SELATAN</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>99.23999999999999</v>
-      </c>
-      <c r="G14" t="n">
-        <v>100</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>100</v>
-      </c>
-      <c r="J14" t="n">
-        <v>90.56</v>
-      </c>
-      <c r="K14" t="n">
-        <v>100</v>
-      </c>
-      <c r="L14" t="n">
-        <v>77.76000000000001</v>
-      </c>
-      <c r="M14" t="n">
-        <v>100</v>
-      </c>
-      <c r="N14" t="n">
-        <v>100</v>
-      </c>
-      <c r="O14" t="n">
-        <v>100</v>
-      </c>
-      <c r="P14" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>90.56</v>
-      </c>
-      <c r="R14" t="n">
-        <v>94.3</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
+          <t>553099</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>86,83</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>89,13</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>94,57</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>94,57</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>99,24</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>96,91</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -1711,85 +2101,115 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>KEJARI OKUS</t>
+          <t>553099</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>KEJARI OKUS</t>
+          <t>553099</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>KEJARI OKUS (007208)</t>
+          <t>553099 (000025)</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>56</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>109</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>690801</t>
+          <t>000025</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>LOKA LABORATORIUM KESEHATAN MASYARAKAT BATURAJA</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>97.13</v>
-      </c>
-      <c r="G15" t="n">
-        <v>100</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>96.87</v>
-      </c>
-      <c r="J15" t="n">
-        <v>98.09</v>
-      </c>
-      <c r="K15" t="n">
-        <v>100</v>
-      </c>
-      <c r="L15" t="n">
-        <v>77.45999999999999</v>
-      </c>
-      <c r="M15" t="n">
-        <v>91.69</v>
-      </c>
-      <c r="N15" t="n">
-        <v>100</v>
-      </c>
-      <c r="O15" t="n">
-        <v>100</v>
-      </c>
-      <c r="P15" t="n">
-        <v>95.8</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>98.09</v>
-      </c>
-      <c r="R15" t="n">
-        <v>94.06</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
+          <t>661192</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>80,61</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>84,57</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>92,29</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>94,84</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>99,76</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>97,30</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -1801,85 +2221,115 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>LOKA LABKESMAS</t>
+          <t>661192</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>LOKA LABKESMAS</t>
+          <t>661192</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>LOKA LABKESMAS (690801)</t>
+          <t>661192 (000025)</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>60</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>109</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>403410</t>
+          <t>000025</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>PENGADILAN AGAMA MUARADUA</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>92.23</v>
-      </c>
-      <c r="G16" t="n">
-        <v>100</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>98.63</v>
-      </c>
-      <c r="J16" t="n">
-        <v>76.67</v>
-      </c>
-      <c r="K16" t="n">
-        <v>100</v>
-      </c>
-      <c r="L16" t="n">
-        <v>91.36</v>
-      </c>
-      <c r="M16" t="n">
-        <v>97.59</v>
-      </c>
-      <c r="N16" t="n">
-        <v>100</v>
-      </c>
-      <c r="O16" t="n">
-        <v>100</v>
-      </c>
-      <c r="P16" t="n">
-        <v>96.92</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>76.67</v>
-      </c>
-      <c r="R16" t="n">
-        <v>92.08</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
+          <t>418462</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>82,46</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>81,88</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>90,94</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>92,78</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>99,61</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>96,20</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -1891,85 +2341,115 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>PA  MUARADUA</t>
+          <t>418462</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>PA  MUARADUA</t>
+          <t>418462</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>PA  MUARADUA (403410)</t>
+          <t>418462 (000025)</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>64</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>109</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>418457</t>
+          <t>000025</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>82.56</v>
-      </c>
-      <c r="G17" t="n">
-        <v>100</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>84.51000000000001</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-      <c r="K17" t="n">
-        <v>100</v>
-      </c>
-      <c r="L17" t="n">
-        <v>71.16</v>
-      </c>
-      <c r="M17" t="n">
-        <v>83.37</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>85.65000000000001</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>100</v>
-      </c>
-      <c r="R17" t="n">
-        <v>70.91</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
+          <t>426050</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>74,31</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>76,72</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>88,36</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>96,66</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>94,27</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>95,47</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -1981,17 +2461,257 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>KEMENAG OKU</t>
+          <t>426050</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>KEMENAG OKU</t>
+          <t>426050</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>KEMENAG OKU (418457)</t>
+          <t>426050 (000025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>000025</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>666502</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>79,90</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>89,95</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>81,83</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>99,60</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>90,72</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>JULI</t>
+        </is>
+      </c>
+      <c r="U18" t="n">
+        <v>2025</v>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>666502</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>666502</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>666502 (000025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>000025</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>418457</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>76,77</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>88,39</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>80,62</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>80,37</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>80,50</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>JULI</t>
+        </is>
+      </c>
+      <c r="U19" t="n">
+        <v>2025</v>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>418457</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>418457</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>418457 (000025)</t>
         </is>
       </c>
     </row>

--- a/data/IKPA_JULI_2025.xlsx
+++ b/data/IKPA_JULI_2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X17"/>
+  <dimension ref="A1:X19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,71 +556,99 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>4</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>109</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>692339</t>
+          <t>000005</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>RUTAN KELAS II B BATURAJA</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>99.37</v>
-      </c>
-      <c r="J2" t="n">
-        <v>100</v>
-      </c>
-      <c r="K2" t="n">
-        <v>100</v>
-      </c>
-      <c r="L2" t="n">
-        <v>100</v>
-      </c>
-      <c r="M2" t="n">
-        <v>97.47</v>
-      </c>
-      <c r="N2" t="n">
-        <v>100</v>
-      </c>
-      <c r="O2" t="n">
-        <v>100</v>
-      </c>
-      <c r="P2" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>100</v>
-      </c>
-      <c r="R2" t="n">
-        <v>99.48999999999999</v>
+          <t>401945</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>100,00</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -633,86 +661,114 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>RUTAN BATURAJA</t>
+          <t>401945</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>RUTAN BATURAJA</t>
+          <t>401945</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>RUTAN BATURAJA (692339)</t>
+          <t>401945 (000005)</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>8</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>109</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>005</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>403409</t>
+          <t>000005</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>PENGADILAN AGAMA MARTAPURA</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>98.41</v>
-      </c>
-      <c r="G3" t="n">
-        <v>100</v>
-      </c>
-      <c r="H3" t="n">
-        <v>100</v>
-      </c>
-      <c r="I3" t="n">
-        <v>98.61</v>
-      </c>
-      <c r="J3" t="n">
-        <v>100</v>
-      </c>
-      <c r="K3" t="n">
-        <v>100</v>
-      </c>
-      <c r="L3" t="n">
-        <v>100</v>
-      </c>
-      <c r="M3" t="n">
-        <v>94.42</v>
-      </c>
-      <c r="N3" t="n">
-        <v>100</v>
-      </c>
-      <c r="O3" t="n">
-        <v>100</v>
-      </c>
-      <c r="P3" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>100</v>
-      </c>
-      <c r="R3" t="n">
-        <v>98.88</v>
+          <t>403410</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>83,55</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>90,67</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>95,34</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>92,12</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>98,03</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>100,00</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -725,86 +781,114 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>PA MARTAPURA</t>
+          <t>403410</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>PA MARTAPURA</t>
+          <t>403410</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>PA MARTAPURA (403409)</t>
+          <t>403410 (000005)</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>12</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>109</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>015</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>410574</t>
+          <t>000137</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>KANTOR PELAYANAN PAJAK PRATAMA BATURAJA</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>97.03</v>
-      </c>
-      <c r="G4" t="n">
-        <v>100</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-      <c r="K4" t="n">
-        <v>100</v>
-      </c>
-      <c r="L4" t="n">
-        <v>100</v>
-      </c>
-      <c r="M4" t="n">
-        <v>93.2</v>
-      </c>
-      <c r="N4" t="n">
-        <v>100</v>
-      </c>
-      <c r="O4" t="n">
-        <v>100</v>
-      </c>
-      <c r="P4" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>100</v>
-      </c>
-      <c r="R4" t="n">
-        <v>98.64</v>
+          <t>692725</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>88,48</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>76,17</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>88,09</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>93,30</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>87,50</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>95,20</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>100,00</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -817,86 +901,114 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>KPP BATURAJA</t>
+          <t>692725</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>KPP BATURAJA</t>
+          <t>692725</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>KPP BATURAJA (410574)</t>
+          <t>692725 (000137)</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>16</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>109</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>054</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>428258</t>
+          <t>000005</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>BADAN PUSAT STATISTIK KAB. OGAN KOMERING ULU</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>99.48</v>
-      </c>
-      <c r="G5" t="n">
-        <v>100</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" t="n">
-        <v>97.95</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-      <c r="K5" t="n">
-        <v>100</v>
-      </c>
-      <c r="L5" t="n">
-        <v>100</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91.81</v>
-      </c>
-      <c r="N5" t="n">
-        <v>100</v>
-      </c>
-      <c r="O5" t="n">
-        <v>100</v>
-      </c>
-      <c r="P5" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>100</v>
-      </c>
-      <c r="R5" t="n">
-        <v>98.36</v>
+          <t>401944</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -909,86 +1021,114 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>BPS OKU</t>
+          <t>401944</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>BPS OKU</t>
+          <t>401944</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>BPS OKU (428258)</t>
+          <t>401944 (000005)</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>20</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>109</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>005</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>403410</t>
+          <t>000060</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>PENGADILAN AGAMA MUARADUA</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>99.93000000000001</v>
-      </c>
-      <c r="G6" t="n">
-        <v>100</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>98.03</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-      <c r="K6" t="n">
-        <v>100</v>
-      </c>
-      <c r="L6" t="n">
-        <v>90.67</v>
-      </c>
-      <c r="M6" t="n">
-        <v>92.12</v>
-      </c>
-      <c r="N6" t="n">
-        <v>100</v>
-      </c>
-      <c r="O6" t="n">
-        <v>100</v>
-      </c>
-      <c r="P6" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>100</v>
-      </c>
-      <c r="R6" t="n">
-        <v>97.02</v>
+          <t>665307</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>93,65</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>98,41</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1001,86 +1141,114 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>PA  MUARADUA</t>
+          <t>665307</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>PA  MUARADUA</t>
+          <t>665307</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>PA  MUARADUA (403410)</t>
+          <t>665307 (000060)</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>24</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>109</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>076</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>656560</t>
+          <t>000054</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>KPU  KABUPATEN OGAN KOMERING ULU TIMUR</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>100</v>
-      </c>
-      <c r="G7" t="n">
-        <v>100</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>98.36</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-      <c r="K7" t="n">
-        <v>100</v>
-      </c>
-      <c r="L7" t="n">
-        <v>87.06999999999999</v>
-      </c>
-      <c r="M7" t="n">
-        <v>96.70999999999999</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>100</v>
-      </c>
-      <c r="R7" t="n">
-        <v>77.40000000000001</v>
+          <t>428258</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>86,09</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>91,81</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>97,95</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1093,86 +1261,114 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>KPU OKUT</t>
+          <t>428258</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>KPU OKUT</t>
+          <t>428258</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>KPU OKUT (656560)</t>
+          <t>428258 (000054)</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>28</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>109</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
-      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>418471</t>
+          <t>000056</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>MADRASAH TSANAWIYAH NEGERI 2 OGAN KOMERING ULU TIMUR</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>96.25</v>
-      </c>
-      <c r="G8" t="n">
-        <v>100</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>97.95</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-      <c r="K8" t="n">
-        <v>100</v>
-      </c>
-      <c r="L8" t="n">
-        <v>87.11</v>
-      </c>
-      <c r="M8" t="n">
-        <v>95.90000000000001</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>100</v>
-      </c>
-      <c r="R8" t="n">
-        <v>77.25</v>
+          <t>669055</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>80,07</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>85,98</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>92,99</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>93,53</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>94,03</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>96,89</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -1185,86 +1381,114 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>MTSN 2 OKUT</t>
+          <t>669055</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>MTSN 2 OKUT</t>
+          <t>669055</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>MTSN 2 OKUT (418471)</t>
+          <t>669055 (000056)</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>32</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>109</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>006</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>007208</t>
+          <t>000025</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>KEJAKSAAN NEGERI OGAN KOMERING ULU SELATAN</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>98.58</v>
-      </c>
-      <c r="G9" t="n">
-        <v>100</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>99.23</v>
-      </c>
-      <c r="J9" t="n">
-        <v>97.15000000000001</v>
-      </c>
-      <c r="K9" t="n">
-        <v>100</v>
-      </c>
-      <c r="L9" t="n">
-        <v>84.38</v>
-      </c>
-      <c r="M9" t="n">
-        <v>96.93000000000001</v>
-      </c>
-      <c r="N9" t="n">
-        <v>100</v>
-      </c>
-      <c r="O9" t="n">
-        <v>100</v>
-      </c>
-      <c r="P9" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>97.15000000000001</v>
-      </c>
-      <c r="R9" t="n">
-        <v>96.33</v>
+          <t>424245</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>69,39</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>73,64</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>86,82</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>94,88</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>99,46</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>98,59</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -1277,86 +1501,114 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>KEJARI OKUS</t>
+          <t>424245</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>KEJARI OKUS</t>
+          <t>424245</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>KEJARI OKUS (007208)</t>
+          <t>424245 (000025)</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>36</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>109</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>060</t>
-        </is>
-      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>665292</t>
+          <t>000012</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>POLRES OGAN KOMERING ULU TIMUR</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>88.19</v>
-      </c>
-      <c r="G10" t="n">
-        <v>100</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>98.48</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-      <c r="K10" t="n">
-        <v>100</v>
-      </c>
-      <c r="L10" t="n">
-        <v>79.40000000000001</v>
-      </c>
-      <c r="M10" t="n">
-        <v>93.93000000000001</v>
-      </c>
-      <c r="N10" t="n">
-        <v>100</v>
-      </c>
-      <c r="O10" t="n">
-        <v>100</v>
-      </c>
-      <c r="P10" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>100</v>
-      </c>
-      <c r="R10" t="n">
-        <v>95.7</v>
+          <t>685001</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>77,61</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>84,29</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>92,15</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>97,89</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>99,30</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -1369,86 +1621,114 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>POLRES OKUT</t>
+          <t>685001</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>POLRES OKUT</t>
+          <t>685001</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>POLRES OKUT (665292)</t>
+          <t>685001 (000012)</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>40</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>109</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>692340</t>
+          <t>000024</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>LAPAS KELAS II B MARTAPURA</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>99.31999999999999</v>
-      </c>
-      <c r="G11" t="n">
-        <v>100</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>98.65000000000001</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-      <c r="K11" t="n">
-        <v>100</v>
-      </c>
-      <c r="L11" t="n">
-        <v>74.63</v>
-      </c>
-      <c r="M11" t="n">
-        <v>94.61</v>
-      </c>
-      <c r="N11" t="n">
-        <v>100</v>
-      </c>
-      <c r="O11" t="n">
-        <v>100</v>
-      </c>
-      <c r="P11" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>100</v>
-      </c>
-      <c r="R11" t="n">
-        <v>95.12</v>
+          <t>690801</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>76,92</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>88,46</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>85,78</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>92,86</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>94,66</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -1461,86 +1741,114 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>LAPAS MARTAPURA</t>
+          <t>690801</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>LAPAS MARTAPURA</t>
+          <t>690801</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>LAPAS MARTAPURA (692340)</t>
+          <t>690801 (000024)</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>44</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>109</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
-      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>661192</t>
+          <t>000025</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MADRASAH TSANAWIYAH NEGERI 4 OGAN KOMERING ULU SELATAN</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>95.52</v>
-      </c>
-      <c r="G12" t="n">
-        <v>100</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>97.3</v>
-      </c>
-      <c r="J12" t="n">
-        <v>96.93000000000001</v>
-      </c>
-      <c r="K12" t="n">
-        <v>100</v>
-      </c>
-      <c r="L12" t="n">
-        <v>84.56999999999999</v>
-      </c>
-      <c r="M12" t="n">
-        <v>94.84</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>99.76000000000001</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>96.93000000000001</v>
-      </c>
-      <c r="R12" t="n">
-        <v>75.86</v>
+          <t>418456</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>91,83</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>89,74</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>94,87</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>98,82</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>99,41</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
@@ -1553,86 +1861,114 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>MTSN 4 OKUS</t>
+          <t>418456</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>MTSN 4 OKUS</t>
+          <t>418456</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>MTSN 4 OKUS (661192)</t>
+          <t>418456 (000025)</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>48</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>109</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>115</t>
-        </is>
-      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>686503</t>
+          <t>000137</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>SEKRETARIAT BAWASLU KABUPATEN OGAN KOMERING ULU SELATAN</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>98.04000000000001</v>
-      </c>
-      <c r="G13" t="n">
-        <v>100</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>96.20999999999999</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-      <c r="K13" t="n">
-        <v>100</v>
-      </c>
-      <c r="L13" t="n">
-        <v>76.54000000000001</v>
-      </c>
-      <c r="M13" t="n">
-        <v>98.20999999999999</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>94.2</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>100</v>
-      </c>
-      <c r="R13" t="n">
-        <v>75.54000000000001</v>
+          <t>692625</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>93,05</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>92,12</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>96,06</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>92,46</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>96,23</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -1645,86 +1981,114 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>BAWASLU OKUS</t>
+          <t>692625</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>BAWASLU OKUS</t>
+          <t>692625</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>BAWASLU OKUS (686503)</t>
+          <t>692625 (000137)</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>52</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>109</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
-      </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>426050</t>
+          <t>000025</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>MADRASAH TSANAWIYAH NEGERI 1 OGAN KOMERING ULU</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>94.8</v>
-      </c>
-      <c r="G14" t="n">
-        <v>100</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>95.47</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-      <c r="K14" t="n">
-        <v>100</v>
-      </c>
-      <c r="L14" t="n">
-        <v>76.72</v>
-      </c>
-      <c r="M14" t="n">
-        <v>96.66</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>94.27</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>100</v>
-      </c>
-      <c r="R14" t="n">
-        <v>75.27</v>
+          <t>553099</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>86,83</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>89,13</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>94,57</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>94,57</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>99,24</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>96,91</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
@@ -1737,86 +2101,114 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>MTSN 1 OKU</t>
+          <t>553099</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>MTSN 1 OKU</t>
+          <t>553099</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>MTSN 1 OKU (426050)</t>
+          <t>553099 (000025)</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>56</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>109</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
-      </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>597558</t>
+          <t>000025</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>MADRASAH ALIYAH NEGERI 2 OGAN KOMERING ULU SELATAN</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>98.08</v>
-      </c>
-      <c r="G15" t="n">
-        <v>100</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>94.90000000000001</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-      <c r="K15" t="n">
-        <v>100</v>
-      </c>
-      <c r="L15" t="n">
-        <v>74.31</v>
-      </c>
-      <c r="M15" t="n">
-        <v>95.78</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>94.02</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>100</v>
-      </c>
-      <c r="R15" t="n">
-        <v>74.7</v>
+          <t>661192</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>80,61</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>84,57</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>92,29</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>94,84</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>99,76</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>97,30</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
@@ -1829,86 +2221,114 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>MAN 2 OKUS</t>
+          <t>661192</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>MAN 2 OKUS</t>
+          <t>661192</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>MAN 2 OKUS (597558)</t>
+          <t>661192 (000025)</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>60</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>109</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>005</t>
-        </is>
-      </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>099228</t>
+          <t>000025</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>PENGADILAN NEGERI BATURAJA</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>85.01000000000001</v>
-      </c>
-      <c r="G16" t="n">
-        <v>100</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>85.28</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-      <c r="K16" t="n">
-        <v>100</v>
-      </c>
-      <c r="L16" t="n">
-        <v>88.48</v>
-      </c>
-      <c r="M16" t="n">
-        <v>76.33</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>94.22</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>100</v>
-      </c>
-      <c r="R16" t="n">
-        <v>72.95999999999999</v>
+          <t>418462</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>82,46</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>81,88</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>90,94</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>92,78</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>99,61</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>96,20</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
@@ -1921,86 +2341,114 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>PN BATURAJA</t>
+          <t>418462</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>PN BATURAJA</t>
+          <t>418462</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>PN BATURAJA (099228)</t>
+          <t>418462 (000025)</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>64</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>109</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
-      </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>597480</t>
+          <t>000025</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>MADRASAH TSANAWIYAH NEGERI 4 OGAN KOMERING ULU TIMUR</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>88.23</v>
-      </c>
-      <c r="G17" t="n">
-        <v>100</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>96.56</v>
-      </c>
-      <c r="J17" t="n">
-        <v>65</v>
-      </c>
-      <c r="K17" t="n">
-        <v>100</v>
-      </c>
-      <c r="L17" t="n">
-        <v>92.31999999999999</v>
-      </c>
-      <c r="M17" t="n">
-        <v>93.11</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>65</v>
-      </c>
-      <c r="R17" t="n">
-        <v>68.72</v>
+          <t>426050</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>74,31</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>76,72</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>88,36</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>96,66</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>94,27</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>95,47</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
@@ -2013,17 +2461,257 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>MTSN 4 OKUT</t>
+          <t>426050</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>MTSN 4 OKUT</t>
+          <t>426050</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>MTSN 4 OKUT (597480)</t>
+          <t>426050 (000025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>000025</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>666502</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>79,90</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>89,95</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>81,83</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>99,60</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>90,72</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>JULI</t>
+        </is>
+      </c>
+      <c r="U18" t="n">
+        <v>2025</v>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>666502</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>666502</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>666502 (000025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>000025</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>418457</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>NILAI</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>76,77</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>88,39</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>80,62</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>80,37</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>80,50</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>JULI</t>
+        </is>
+      </c>
+      <c r="U19" t="n">
+        <v>2025</v>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>418457</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>418457</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>418457 (000025)</t>
         </is>
       </c>
     </row>
